--- a/apps/backend/src/plans/plans/import-plan-aggregate/__fixtures__/one_fiche_plan.xlsx
+++ b/apps/backend/src/plans/plans/import-plan-aggregate/__fixtures__/one_fiche_plan.xlsx
@@ -616,7 +616,7 @@
     <t xml:space="preserve">Il s’agit alors de permettre aux élus communautaires d’à la fois porter la parole des habitants dans le cadre du CLS mais aussi de pouvoir suivre l’avancée des actions et de se tenir informé de toute son actualité. </t>
   </si>
   <si>
-    <t xml:space="preserve"> Une instance de gouvernance</t>
+    <t xml:space="preserve"> Une instance de gouvernance, Une autre instance</t>
   </si>
   <si>
     <t>Objectif général : L’appropriation du Contrat Local de Santé par les élus
